--- a/test-15-09-21.xlsx
+++ b/test-15-09-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yourself\Documents\UiPath\SummaryGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73277B5-F542-4977-8C71-D903991C6300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1967429B-8FE5-4730-A271-9499A8722CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="0" activeTab="0" xr2:uid="{2C978C3B-111B-4ACC-96C1-9558FC7B6F92}"/>
   </x:bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <x:si>
     <x:t>Ticket Name</x:t>
   </x:si>
@@ -128,6 +128,12 @@
   </x:si>
   <x:si>
     <x:t>Reference Kosong</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not Uploaded</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status Not Found</x:t>
   </x:si>
   <x:si>
     <x:t>Jessenia Agnes Salim</x:t>
@@ -162,7 +168,19 @@
 Relationship : Test</x:t>
   </x:si>
   <x:si>
-    <x:t>https://myhiring.indosatooredoo.com/uat/HR_talent/final_process/download/file?file_id=eyJpdiI6InpSajJReEdsOVQzSzVOQXU3cXRSK1E9PSIsInZhbHVlIjoiZlNUV2d6MyttOExITW53YmpDZXBFUT09IiwibWFjIjoiZjhhNDRlYzA5NGMwZTIwNmM0NWI0NTdjZWI5NTFkNGIxNjk5OTUwMjhlMWExODllYTdhNDk3MTg4YThkZDAwYSJ9&amp;file_type=reference_file,https://myhiring.indosatooredoo.com/uat/HR_talent/final_process/download/file?file_id=eyJpdiI6IjZOcUVcL2oyNzFsYkNKTlI4U2RLQlBRPT0iLCJ2YWx1ZSI6IkR0Q25XOGxoMElqNHVHRjhOb09yXC9RPT0iLCJtYWMiOiI2MWJiOGY2MWYxMTgyYzM4OWI3ZGE3Yjk4NTM3ZjQ1MjM5ZWRmNjA2ZTU0ZDljODY5ZGY3ZjU2YmQ1M2Y0YTU1In0%3D&amp;file_type=reference_file</x:t>
+    <x:t>https://myhiring.indosatooredoo.com/uat/HR_talent/final_process/download/file?file_id=eyJpdiI6IkVUMTYzZXhMQlpqZm45aGM5MEErTXc9PSIsInZhbHVlIjoiZG5GNmZ5ZlhJaGJyZGQzV0ZMTG5FUT09IiwibWFjIjoiMmE4NmM4MDc2NWE3YjVkMDNkZTBlZTI1Y2Q5YmI3ZGUyM2Q4ZGE3ODUyYmEyY2MwZWVhYjljYTM0ZDBjZmU1OCJ9&amp;file_type=reference_file,https://myhiring.indosatooredoo.com/uat/HR_talent/final_process/download/file?file_id=eyJpdiI6IjQzaFYyRFhTa2pQM1ZIVkVqR3ZNN2c9PSIsInZhbHVlIjoiVUJDMVJJcGpYcGFjellmOE8ybFhtZz09IiwibWFjIjoiNDA4OWU1YWI1NWExZjE3OTRmYTNkYjFjMDc0NzdlNDYwNGZkNWY3Nzg3NDBjMDg3YjA4MjFlM2MwYzk3MTg5OCJ9&amp;file_type=reference_file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30-06-2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hasil Fisik Bpk. Hendra-4GwQ.pdf,Hasil Lab dan Non Lab Bpk. Hendra-ufEs.pdf,Kesimpulan Bpk. Hendra-t4bK.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 months ago,2 months ago,2 months ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fit</x:t>
   </x:si>
   <x:si>
     <x:t>Channel Operations</x:t>
@@ -174,12 +192,27 @@
     <x:t>Desy Wartati</x:t>
   </x:si>
   <x:si>
-    <x:t>Past 3 months Payment Slip - Hendra-ukEq.pdf,03 KTP - Desy Wartati-CJw0.pdf</x:t>
+    <x:t>03 KTP - Desy Wartati-CJw0.pdf</x:t>
   </x:si>
   <x:si>
     <x:t>1 month ago</x:t>
   </x:si>
   <x:si>
+    <x:t>09-07-2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cor dan pulmo saat ini dalam batas normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sdri. Desy W Mcu-W03x.pdf,Sdri. Desy Wartati MCU Fisik-0jgh.pdf,Sdri. Desy W Mcu-u81f.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 month ago,1 month ago,1 month ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fit, with notes</x:t>
+  </x:si>
+  <x:si>
     <x:t>VP - Strategic Research &amp; Insight</x:t>
   </x:si>
   <x:si>
@@ -198,10 +231,7 @@
     <x:t>Rahayu Hena</x:t>
   </x:si>
   <x:si>
-    <x:t>Past 3 months Payment Slip - Hendra-ukEq.pdf,03 KTP - Desy Wartati-CJw0.pdf,SLIP GAJI APRIL 2021-R8jG.pdf,SLIP GAJI FEBRUARI 2021-A3qJ.pdf,SLIP GAJI MARET 2021-NGPL.pdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 months ago,2 months ago,2 months ago</x:t>
+    <x:t>SLIP GAJI APRIL 2021-R8jG.pdf,SLIP GAJI FEBRUARI 2021-A3qJ.pdf,SLIP GAJI MARET 2021-NGPL.pdf</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -574,10 +604,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AA3"/>
+  <x:dimension ref="A1:AA7"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D10" sqref="D10 D10:D10"/>
+      <x:selection activeCell="L11" sqref="L11 L11:L11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +723,24 @@
       <x:c r="I2" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
+      <x:c r="J2" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K2" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="L2" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M2" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N2" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O2" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <x:c r="A3" s="2" t="s">
@@ -705,7 +753,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
         <x:v>31</x:v>
@@ -722,57 +770,93 @@
       <x:c r="I3" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
+      <x:c r="J3" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K3" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N3" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O3" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:27">
+    <x:row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <x:c r="A4" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H4" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I4" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="J4" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="K4" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="L4" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="M4" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N4" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="O4" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="F4" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G4" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="H4" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="I4" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:27">
-      <x:c r="A5" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
         <x:v>33</x:v>
@@ -780,19 +864,37 @@
       <x:c r="I5" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
+      <x:c r="J5" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="K5" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="L5" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="M5" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N5" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="O5" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
     </x:row>
-    <x:row r="6" spans="1:27">
+    <x:row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <x:c r="A6" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
         <x:v>31</x:v>
@@ -809,28 +911,46 @@
       <x:c r="I6" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
+      <x:c r="J6" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K6" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="L6" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M6" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N6" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O6" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:27">
+    <x:row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <x:c r="A7" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="G7" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H7" s="2" t="s">
         <x:v>33</x:v>
@@ -838,8 +958,26 @@
       <x:c r="I7" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
+      <x:c r="J7" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="K7" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="L7" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M7" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N7" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O7" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:27"/>
+    <x:row r="11" spans="1:27"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
